--- a/src/main/resources/script/db/data_init/2018-09-26-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2018-09-26-data-init.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/agile-itsm/state-machine-service/src/main/resources/script/db/data_init/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/issue-service/src/main/resources/script/db/data_init/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7C7819DC-63CF-3547-8BEF-697CBF7F1D1C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{667BEDEE-B013-E64D-8736-E1F379B810DB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="state_machine_lookup_type" sheetId="2" r:id="rId2"/>
-    <sheet name="state_machine_lookup_value" sheetId="3" r:id="rId3"/>
+    <sheet name="lookup_type" sheetId="2" r:id="rId2"/>
+    <sheet name="lookup_value" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -2074,7 +2074,7 @@
   <dimension ref="A1:IV29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>

--- a/src/main/resources/script/db/data_init/2018-09-26-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2018-09-26-data-init.xlsx
@@ -8,24 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/issue-service/src/main/resources/script/db/data_init/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{667BEDEE-B013-E64D-8736-E1F379B810DB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{92EF0B5A-6C64-5243-8113-DCCD46B1278E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
     <sheet name="lookup_type" sheetId="2" r:id="rId2"/>
     <sheet name="lookup_value" sheetId="3" r:id="rId3"/>
+    <sheet name="object_shceme_field" sheetId="4" r:id="rId4"/>
+    <sheet name="object_scheme" sheetId="5" r:id="rId5"/>
+    <sheet name="page" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="75">
-  <si>
-    <t>state_machine_lookup_type</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="206">
   <si>
     <t>#type_code</t>
   </si>
@@ -236,10 +236,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>condition_one</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>满足所有条件</t>
     <rPh sb="0" eb="2">
       <t>m zu</t>
@@ -247,26 +243,679 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>满足条件之一</t>
+    <t>todo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>doing</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile_issue</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>single</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>特性类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>featureType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收标准</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>acceptanceCritera</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>特性价值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>benfitHypothesis</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间跟踪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间跟踪</t>
+    <rPh sb="0" eb="2">
+      <t>shi j</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeTrace</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <rPh sb="0" eb="2">
+      <t>g x</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastUpdateDate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <rPh sb="0" eb="2">
+      <t>c j</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>creationDate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>member</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>经办人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>经办人</t>
+    <rPh sb="0" eb="2">
+      <t>j b r</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>assignee</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告人</t>
+    <rPh sb="0" eb="2">
+      <t>bao g r</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reporter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>issue_epic</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗名称</t>
+    <rPh sb="0" eb="2">
+      <t>shi s</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>epicName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲刺</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sprint</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗</t>
+    <rPh sb="0" eb="2">
+      <t>shi s</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>epic</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiple</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复的版本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixVersion</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响的版本</t>
+    <rPh sb="0" eb="2">
+      <t>y x</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>influenceVersion</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <rPh sb="0" eb="2">
+      <t>biao q</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>label</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <rPh sb="0" eb="2">
+      <t>mo k</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>component</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>priority</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <rPh sb="0" eb="2">
+      <t>z tai</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>story</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事点</t>
+    <rPh sb="0" eb="2">
+      <t>gu shi</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>storyPoints</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>预估时间</t>
+    <rPh sb="0" eb="2">
+      <t>yu gu</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>remainingTime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <rPh sb="0" eb="2">
+      <t>miao s</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>gai yao</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>summary</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>global</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题类型</t>
+    <rPh sb="0" eb="2">
+      <t>w t l x</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>issueType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>scheme_code</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>context</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_required</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_system</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>field_type</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#code</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>object_scheme_field</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>object_scheme</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#scheme_code</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷问题字段方案</t>
+    <rPh sb="0" eb="8">
+      <t>w ti</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#page_code</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile_issue_create</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷问题页面【创建】</t>
+    <rPh sb="0" eb="6">
+      <t>c j</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile_issue_edit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷问题页面【编辑】</t>
+    <rPh sb="0" eb="6">
+      <t>bian ji</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lookup_type</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>object_scheme_code</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象方案编码</t>
+    <rPh sb="0" eb="2">
+      <t>dui x</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象方案编码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>page_code</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面编码</t>
+    <rPh sb="0" eb="2">
+      <t>ye m</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>object_scheme_field_context</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象方案字段上下文</t>
     <rPh sb="0" eb="1">
-      <t>m zu</t>
+      <t>dui x</t>
     </rPh>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>todo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>doing</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>done</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>none</t>
+    <t>字段类型</t>
+    <rPh sb="0" eb="2">
+      <t>zi d</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷问题</t>
+    <rPh sb="0" eb="2">
+      <t>m jie</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_issue</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试问题</t>
+    <rPh sb="0" eb="2">
+      <t>ce s</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷问题页面（创建）</t>
+    <rPh sb="0" eb="1">
+      <t>m jie</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷问题页面（编辑）</t>
+    <rPh sb="0" eb="6">
+      <t>m jie</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_issue_create</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试问题页面（创建）</t>
+    <rPh sb="0" eb="6">
+      <t>c s</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_issue_edit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试问题页面（编辑）</t>
+    <rPh sb="0" eb="6">
+      <t>c sm jie</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局</t>
+    <rPh sb="0" eb="1">
+      <t>quan ju</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>特性</t>
+    <rPh sb="0" eb="2">
+      <t>te x</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗</t>
+    <rPh sb="0" eb="2">
+      <t>s shi</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事</t>
+    <rPh sb="0" eb="2">
+      <t>gu s</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺陷</t>
+    <rPh sb="0" eb="2">
+      <t>que x</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>task</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
+    <rPh sb="0" eb="2">
+      <t>r wu</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_task</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>子任务</t>
+    <rPh sb="0" eb="2">
+      <t>r wu</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>radio</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单选框</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkbox</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>复选框</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间选择器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期时间选择器</t>
+    <rPh sb="0" eb="7">
+      <t>shi j</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字输入框</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本框（单行）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本框（多行）</t>
+    <rPh sb="0" eb="2">
+      <t>wen ben</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择器（单选）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择器（多选）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员</t>
+    <rPh sb="0" eb="2">
+      <t>ren y</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员（需要特定加载用户）</t>
+    <rPh sb="0" eb="1">
+      <t>ren y</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期选择器</t>
+    <rPh sb="0" eb="5">
+      <t>shi j</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期选择器</t>
+    <rPh sb="0" eb="1">
+      <t>ri q</t>
+    </rPh>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -274,7 +923,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -314,6 +963,12 @@
       <family val="4"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -323,7 +978,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -346,11 +1001,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -365,9 +1032,32 @@
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{EA581B9B-7DE0-7D45-A7B0-C7667E019806}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -1618,10 +2308,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:IV14"/>
+  <dimension ref="A1:IV34"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
@@ -1629,7 +2319,7 @@
     <col min="1" max="3" width="9.83203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="19" style="3" customWidth="1"/>
     <col min="5" max="6" width="30.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" style="3" customWidth="1"/>
     <col min="8" max="256" width="9" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1692,16 +2382,16 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>2</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:256" ht="17" customHeight="1">
@@ -1710,13 +2400,13 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:256" ht="17" customHeight="1">
@@ -1725,13 +2415,13 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:256" ht="17" customHeight="1">
@@ -1740,13 +2430,13 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:256" ht="17" customHeight="1">
@@ -1755,13 +2445,13 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:256" ht="17" customHeight="1">
@@ -1770,13 +2460,13 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:256" ht="17" customHeight="1">
@@ -1785,13 +2475,13 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -2049,14 +2739,1214 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="G14" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>66</v>
-      </c>
+    </row>
+    <row r="15" spans="1:256" ht="17" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="6"/>
+      <c r="AP15" s="6"/>
+      <c r="AQ15" s="6"/>
+      <c r="AR15" s="6"/>
+      <c r="AS15" s="6"/>
+      <c r="AT15" s="6"/>
+      <c r="AU15" s="6"/>
+      <c r="AV15" s="6"/>
+      <c r="AW15" s="6"/>
+      <c r="AX15" s="6"/>
+      <c r="AY15" s="6"/>
+      <c r="AZ15" s="6"/>
+      <c r="BA15" s="6"/>
+      <c r="BB15" s="6"/>
+      <c r="BC15" s="6"/>
+      <c r="BD15" s="6"/>
+      <c r="BE15" s="6"/>
+      <c r="BF15" s="6"/>
+      <c r="BG15" s="6"/>
+      <c r="BH15" s="6"/>
+      <c r="BI15" s="6"/>
+      <c r="BJ15" s="6"/>
+      <c r="BK15" s="6"/>
+      <c r="BL15" s="6"/>
+      <c r="BM15" s="6"/>
+      <c r="BN15" s="6"/>
+      <c r="BO15" s="6"/>
+      <c r="BP15" s="6"/>
+      <c r="BQ15" s="6"/>
+      <c r="BR15" s="6"/>
+      <c r="BS15" s="6"/>
+      <c r="BT15" s="6"/>
+      <c r="BU15" s="6"/>
+      <c r="BV15" s="6"/>
+      <c r="BW15" s="6"/>
+      <c r="BX15" s="6"/>
+      <c r="BY15" s="6"/>
+      <c r="BZ15" s="6"/>
+      <c r="CA15" s="6"/>
+      <c r="CB15" s="6"/>
+      <c r="CC15" s="6"/>
+      <c r="CD15" s="6"/>
+      <c r="CE15" s="6"/>
+      <c r="CF15" s="6"/>
+      <c r="CG15" s="6"/>
+      <c r="CH15" s="6"/>
+      <c r="CI15" s="6"/>
+      <c r="CJ15" s="6"/>
+      <c r="CK15" s="6"/>
+      <c r="CL15" s="6"/>
+      <c r="CM15" s="6"/>
+      <c r="CN15" s="6"/>
+      <c r="CO15" s="6"/>
+      <c r="CP15" s="6"/>
+      <c r="CQ15" s="6"/>
+      <c r="CR15" s="6"/>
+      <c r="CS15" s="6"/>
+      <c r="CT15" s="6"/>
+      <c r="CU15" s="6"/>
+      <c r="CV15" s="6"/>
+      <c r="CW15" s="6"/>
+      <c r="CX15" s="6"/>
+      <c r="CY15" s="6"/>
+      <c r="CZ15" s="6"/>
+      <c r="DA15" s="6"/>
+      <c r="DB15" s="6"/>
+      <c r="DC15" s="6"/>
+      <c r="DD15" s="6"/>
+      <c r="DE15" s="6"/>
+      <c r="DF15" s="6"/>
+      <c r="DG15" s="6"/>
+      <c r="DH15" s="6"/>
+      <c r="DI15" s="6"/>
+      <c r="DJ15" s="6"/>
+      <c r="DK15" s="6"/>
+      <c r="DL15" s="6"/>
+      <c r="DM15" s="6"/>
+      <c r="DN15" s="6"/>
+      <c r="DO15" s="6"/>
+      <c r="DP15" s="6"/>
+      <c r="DQ15" s="6"/>
+      <c r="DR15" s="6"/>
+      <c r="DS15" s="6"/>
+      <c r="DT15" s="6"/>
+      <c r="DU15" s="6"/>
+      <c r="DV15" s="6"/>
+      <c r="DW15" s="6"/>
+      <c r="DX15" s="6"/>
+      <c r="DY15" s="6"/>
+      <c r="DZ15" s="6"/>
+      <c r="EA15" s="6"/>
+      <c r="EB15" s="6"/>
+      <c r="EC15" s="6"/>
+      <c r="ED15" s="6"/>
+      <c r="EE15" s="6"/>
+      <c r="EF15" s="6"/>
+      <c r="EG15" s="6"/>
+      <c r="EH15" s="6"/>
+      <c r="EI15" s="6"/>
+      <c r="EJ15" s="6"/>
+      <c r="EK15" s="6"/>
+      <c r="EL15" s="6"/>
+      <c r="EM15" s="6"/>
+      <c r="EN15" s="6"/>
+      <c r="EO15" s="6"/>
+      <c r="EP15" s="6"/>
+      <c r="EQ15" s="6"/>
+      <c r="ER15" s="6"/>
+      <c r="ES15" s="6"/>
+      <c r="ET15" s="6"/>
+      <c r="EU15" s="6"/>
+      <c r="EV15" s="6"/>
+      <c r="EW15" s="6"/>
+      <c r="EX15" s="6"/>
+      <c r="EY15" s="6"/>
+      <c r="EZ15" s="6"/>
+      <c r="FA15" s="6"/>
+      <c r="FB15" s="6"/>
+      <c r="FC15" s="6"/>
+      <c r="FD15" s="6"/>
+      <c r="FE15" s="6"/>
+      <c r="FF15" s="6"/>
+      <c r="FG15" s="6"/>
+      <c r="FH15" s="6"/>
+      <c r="FI15" s="6"/>
+      <c r="FJ15" s="6"/>
+      <c r="FK15" s="6"/>
+      <c r="FL15" s="6"/>
+      <c r="FM15" s="6"/>
+      <c r="FN15" s="6"/>
+      <c r="FO15" s="6"/>
+      <c r="FP15" s="6"/>
+      <c r="FQ15" s="6"/>
+      <c r="FR15" s="6"/>
+      <c r="FS15" s="6"/>
+      <c r="FT15" s="6"/>
+      <c r="FU15" s="6"/>
+      <c r="FV15" s="6"/>
+      <c r="FW15" s="6"/>
+      <c r="FX15" s="6"/>
+      <c r="FY15" s="6"/>
+      <c r="FZ15" s="6"/>
+      <c r="GA15" s="6"/>
+      <c r="GB15" s="6"/>
+      <c r="GC15" s="6"/>
+      <c r="GD15" s="6"/>
+      <c r="GE15" s="6"/>
+      <c r="GF15" s="6"/>
+      <c r="GG15" s="6"/>
+      <c r="GH15" s="6"/>
+      <c r="GI15" s="6"/>
+      <c r="GJ15" s="6"/>
+      <c r="GK15" s="6"/>
+      <c r="GL15" s="6"/>
+      <c r="GM15" s="6"/>
+      <c r="GN15" s="6"/>
+      <c r="GO15" s="6"/>
+      <c r="GP15" s="6"/>
+      <c r="GQ15" s="6"/>
+      <c r="GR15" s="6"/>
+      <c r="GS15" s="6"/>
+      <c r="GT15" s="6"/>
+      <c r="GU15" s="6"/>
+      <c r="GV15" s="6"/>
+      <c r="GW15" s="6"/>
+      <c r="GX15" s="6"/>
+      <c r="GY15" s="6"/>
+      <c r="GZ15" s="6"/>
+      <c r="HA15" s="6"/>
+      <c r="HB15" s="6"/>
+      <c r="HC15" s="6"/>
+      <c r="HD15" s="6"/>
+      <c r="HE15" s="6"/>
+      <c r="HF15" s="6"/>
+      <c r="HG15" s="6"/>
+      <c r="HH15" s="6"/>
+      <c r="HI15" s="6"/>
+      <c r="HJ15" s="6"/>
+      <c r="HK15" s="6"/>
+      <c r="HL15" s="6"/>
+      <c r="HM15" s="6"/>
+      <c r="HN15" s="6"/>
+      <c r="HO15" s="6"/>
+      <c r="HP15" s="6"/>
+      <c r="HQ15" s="6"/>
+      <c r="HR15" s="6"/>
+      <c r="HS15" s="6"/>
+      <c r="HT15" s="6"/>
+      <c r="HU15" s="6"/>
+      <c r="HV15" s="6"/>
+      <c r="HW15" s="6"/>
+      <c r="HX15" s="6"/>
+      <c r="HY15" s="6"/>
+      <c r="HZ15" s="6"/>
+      <c r="IA15" s="6"/>
+      <c r="IB15" s="6"/>
+      <c r="IC15" s="6"/>
+      <c r="ID15" s="6"/>
+      <c r="IE15" s="6"/>
+      <c r="IF15" s="6"/>
+      <c r="IG15" s="6"/>
+      <c r="IH15" s="6"/>
+      <c r="II15" s="6"/>
+      <c r="IJ15" s="6"/>
+      <c r="IK15" s="6"/>
+      <c r="IL15" s="6"/>
+      <c r="IM15" s="6"/>
+      <c r="IN15" s="6"/>
+      <c r="IO15" s="6"/>
+      <c r="IP15" s="6"/>
+      <c r="IQ15" s="6"/>
+      <c r="IR15" s="6"/>
+      <c r="IS15" s="6"/>
+      <c r="IT15" s="6"/>
+      <c r="IU15" s="6"/>
+      <c r="IV15" s="6"/>
+    </row>
+    <row r="16" spans="1:256" ht="17" customHeight="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="6"/>
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="6"/>
+      <c r="AN16" s="6"/>
+      <c r="AO16" s="6"/>
+      <c r="AP16" s="6"/>
+      <c r="AQ16" s="6"/>
+      <c r="AR16" s="6"/>
+      <c r="AS16" s="6"/>
+      <c r="AT16" s="6"/>
+      <c r="AU16" s="6"/>
+      <c r="AV16" s="6"/>
+      <c r="AW16" s="6"/>
+      <c r="AX16" s="6"/>
+      <c r="AY16" s="6"/>
+      <c r="AZ16" s="6"/>
+      <c r="BA16" s="6"/>
+      <c r="BB16" s="6"/>
+      <c r="BC16" s="6"/>
+      <c r="BD16" s="6"/>
+      <c r="BE16" s="6"/>
+      <c r="BF16" s="6"/>
+      <c r="BG16" s="6"/>
+      <c r="BH16" s="6"/>
+      <c r="BI16" s="6"/>
+      <c r="BJ16" s="6"/>
+      <c r="BK16" s="6"/>
+      <c r="BL16" s="6"/>
+      <c r="BM16" s="6"/>
+      <c r="BN16" s="6"/>
+      <c r="BO16" s="6"/>
+      <c r="BP16" s="6"/>
+      <c r="BQ16" s="6"/>
+      <c r="BR16" s="6"/>
+      <c r="BS16" s="6"/>
+      <c r="BT16" s="6"/>
+      <c r="BU16" s="6"/>
+      <c r="BV16" s="6"/>
+      <c r="BW16" s="6"/>
+      <c r="BX16" s="6"/>
+      <c r="BY16" s="6"/>
+      <c r="BZ16" s="6"/>
+      <c r="CA16" s="6"/>
+      <c r="CB16" s="6"/>
+      <c r="CC16" s="6"/>
+      <c r="CD16" s="6"/>
+      <c r="CE16" s="6"/>
+      <c r="CF16" s="6"/>
+      <c r="CG16" s="6"/>
+      <c r="CH16" s="6"/>
+      <c r="CI16" s="6"/>
+      <c r="CJ16" s="6"/>
+      <c r="CK16" s="6"/>
+      <c r="CL16" s="6"/>
+      <c r="CM16" s="6"/>
+      <c r="CN16" s="6"/>
+      <c r="CO16" s="6"/>
+      <c r="CP16" s="6"/>
+      <c r="CQ16" s="6"/>
+      <c r="CR16" s="6"/>
+      <c r="CS16" s="6"/>
+      <c r="CT16" s="6"/>
+      <c r="CU16" s="6"/>
+      <c r="CV16" s="6"/>
+      <c r="CW16" s="6"/>
+      <c r="CX16" s="6"/>
+      <c r="CY16" s="6"/>
+      <c r="CZ16" s="6"/>
+      <c r="DA16" s="6"/>
+      <c r="DB16" s="6"/>
+      <c r="DC16" s="6"/>
+      <c r="DD16" s="6"/>
+      <c r="DE16" s="6"/>
+      <c r="DF16" s="6"/>
+      <c r="DG16" s="6"/>
+      <c r="DH16" s="6"/>
+      <c r="DI16" s="6"/>
+      <c r="DJ16" s="6"/>
+      <c r="DK16" s="6"/>
+      <c r="DL16" s="6"/>
+      <c r="DM16" s="6"/>
+      <c r="DN16" s="6"/>
+      <c r="DO16" s="6"/>
+      <c r="DP16" s="6"/>
+      <c r="DQ16" s="6"/>
+      <c r="DR16" s="6"/>
+      <c r="DS16" s="6"/>
+      <c r="DT16" s="6"/>
+      <c r="DU16" s="6"/>
+      <c r="DV16" s="6"/>
+      <c r="DW16" s="6"/>
+      <c r="DX16" s="6"/>
+      <c r="DY16" s="6"/>
+      <c r="DZ16" s="6"/>
+      <c r="EA16" s="6"/>
+      <c r="EB16" s="6"/>
+      <c r="EC16" s="6"/>
+      <c r="ED16" s="6"/>
+      <c r="EE16" s="6"/>
+      <c r="EF16" s="6"/>
+      <c r="EG16" s="6"/>
+      <c r="EH16" s="6"/>
+      <c r="EI16" s="6"/>
+      <c r="EJ16" s="6"/>
+      <c r="EK16" s="6"/>
+      <c r="EL16" s="6"/>
+      <c r="EM16" s="6"/>
+      <c r="EN16" s="6"/>
+      <c r="EO16" s="6"/>
+      <c r="EP16" s="6"/>
+      <c r="EQ16" s="6"/>
+      <c r="ER16" s="6"/>
+      <c r="ES16" s="6"/>
+      <c r="ET16" s="6"/>
+      <c r="EU16" s="6"/>
+      <c r="EV16" s="6"/>
+      <c r="EW16" s="6"/>
+      <c r="EX16" s="6"/>
+      <c r="EY16" s="6"/>
+      <c r="EZ16" s="6"/>
+      <c r="FA16" s="6"/>
+      <c r="FB16" s="6"/>
+      <c r="FC16" s="6"/>
+      <c r="FD16" s="6"/>
+      <c r="FE16" s="6"/>
+      <c r="FF16" s="6"/>
+      <c r="FG16" s="6"/>
+      <c r="FH16" s="6"/>
+      <c r="FI16" s="6"/>
+      <c r="FJ16" s="6"/>
+      <c r="FK16" s="6"/>
+      <c r="FL16" s="6"/>
+      <c r="FM16" s="6"/>
+      <c r="FN16" s="6"/>
+      <c r="FO16" s="6"/>
+      <c r="FP16" s="6"/>
+      <c r="FQ16" s="6"/>
+      <c r="FR16" s="6"/>
+      <c r="FS16" s="6"/>
+      <c r="FT16" s="6"/>
+      <c r="FU16" s="6"/>
+      <c r="FV16" s="6"/>
+      <c r="FW16" s="6"/>
+      <c r="FX16" s="6"/>
+      <c r="FY16" s="6"/>
+      <c r="FZ16" s="6"/>
+      <c r="GA16" s="6"/>
+      <c r="GB16" s="6"/>
+      <c r="GC16" s="6"/>
+      <c r="GD16" s="6"/>
+      <c r="GE16" s="6"/>
+      <c r="GF16" s="6"/>
+      <c r="GG16" s="6"/>
+      <c r="GH16" s="6"/>
+      <c r="GI16" s="6"/>
+      <c r="GJ16" s="6"/>
+      <c r="GK16" s="6"/>
+      <c r="GL16" s="6"/>
+      <c r="GM16" s="6"/>
+      <c r="GN16" s="6"/>
+      <c r="GO16" s="6"/>
+      <c r="GP16" s="6"/>
+      <c r="GQ16" s="6"/>
+      <c r="GR16" s="6"/>
+      <c r="GS16" s="6"/>
+      <c r="GT16" s="6"/>
+      <c r="GU16" s="6"/>
+      <c r="GV16" s="6"/>
+      <c r="GW16" s="6"/>
+      <c r="GX16" s="6"/>
+      <c r="GY16" s="6"/>
+      <c r="GZ16" s="6"/>
+      <c r="HA16" s="6"/>
+      <c r="HB16" s="6"/>
+      <c r="HC16" s="6"/>
+      <c r="HD16" s="6"/>
+      <c r="HE16" s="6"/>
+      <c r="HF16" s="6"/>
+      <c r="HG16" s="6"/>
+      <c r="HH16" s="6"/>
+      <c r="HI16" s="6"/>
+      <c r="HJ16" s="6"/>
+      <c r="HK16" s="6"/>
+      <c r="HL16" s="6"/>
+      <c r="HM16" s="6"/>
+      <c r="HN16" s="6"/>
+      <c r="HO16" s="6"/>
+      <c r="HP16" s="6"/>
+      <c r="HQ16" s="6"/>
+      <c r="HR16" s="6"/>
+      <c r="HS16" s="6"/>
+      <c r="HT16" s="6"/>
+      <c r="HU16" s="6"/>
+      <c r="HV16" s="6"/>
+      <c r="HW16" s="6"/>
+      <c r="HX16" s="6"/>
+      <c r="HY16" s="6"/>
+      <c r="HZ16" s="6"/>
+      <c r="IA16" s="6"/>
+      <c r="IB16" s="6"/>
+      <c r="IC16" s="6"/>
+      <c r="ID16" s="6"/>
+      <c r="IE16" s="6"/>
+      <c r="IF16" s="6"/>
+      <c r="IG16" s="6"/>
+      <c r="IH16" s="6"/>
+      <c r="II16" s="6"/>
+      <c r="IJ16" s="6"/>
+      <c r="IK16" s="6"/>
+      <c r="IL16" s="6"/>
+      <c r="IM16" s="6"/>
+      <c r="IN16" s="6"/>
+      <c r="IO16" s="6"/>
+      <c r="IP16" s="6"/>
+      <c r="IQ16" s="6"/>
+      <c r="IR16" s="6"/>
+      <c r="IS16" s="6"/>
+      <c r="IT16" s="6"/>
+      <c r="IU16" s="6"/>
+      <c r="IV16" s="6"/>
+    </row>
+    <row r="17" spans="1:256" ht="17" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="6"/>
+      <c r="AN17" s="6"/>
+      <c r="AO17" s="6"/>
+      <c r="AP17" s="6"/>
+      <c r="AQ17" s="6"/>
+      <c r="AR17" s="6"/>
+      <c r="AS17" s="6"/>
+      <c r="AT17" s="6"/>
+      <c r="AU17" s="6"/>
+      <c r="AV17" s="6"/>
+      <c r="AW17" s="6"/>
+      <c r="AX17" s="6"/>
+      <c r="AY17" s="6"/>
+      <c r="AZ17" s="6"/>
+      <c r="BA17" s="6"/>
+      <c r="BB17" s="6"/>
+      <c r="BC17" s="6"/>
+      <c r="BD17" s="6"/>
+      <c r="BE17" s="6"/>
+      <c r="BF17" s="6"/>
+      <c r="BG17" s="6"/>
+      <c r="BH17" s="6"/>
+      <c r="BI17" s="6"/>
+      <c r="BJ17" s="6"/>
+      <c r="BK17" s="6"/>
+      <c r="BL17" s="6"/>
+      <c r="BM17" s="6"/>
+      <c r="BN17" s="6"/>
+      <c r="BO17" s="6"/>
+      <c r="BP17" s="6"/>
+      <c r="BQ17" s="6"/>
+      <c r="BR17" s="6"/>
+      <c r="BS17" s="6"/>
+      <c r="BT17" s="6"/>
+      <c r="BU17" s="6"/>
+      <c r="BV17" s="6"/>
+      <c r="BW17" s="6"/>
+      <c r="BX17" s="6"/>
+      <c r="BY17" s="6"/>
+      <c r="BZ17" s="6"/>
+      <c r="CA17" s="6"/>
+      <c r="CB17" s="6"/>
+      <c r="CC17" s="6"/>
+      <c r="CD17" s="6"/>
+      <c r="CE17" s="6"/>
+      <c r="CF17" s="6"/>
+      <c r="CG17" s="6"/>
+      <c r="CH17" s="6"/>
+      <c r="CI17" s="6"/>
+      <c r="CJ17" s="6"/>
+      <c r="CK17" s="6"/>
+      <c r="CL17" s="6"/>
+      <c r="CM17" s="6"/>
+      <c r="CN17" s="6"/>
+      <c r="CO17" s="6"/>
+      <c r="CP17" s="6"/>
+      <c r="CQ17" s="6"/>
+      <c r="CR17" s="6"/>
+      <c r="CS17" s="6"/>
+      <c r="CT17" s="6"/>
+      <c r="CU17" s="6"/>
+      <c r="CV17" s="6"/>
+      <c r="CW17" s="6"/>
+      <c r="CX17" s="6"/>
+      <c r="CY17" s="6"/>
+      <c r="CZ17" s="6"/>
+      <c r="DA17" s="6"/>
+      <c r="DB17" s="6"/>
+      <c r="DC17" s="6"/>
+      <c r="DD17" s="6"/>
+      <c r="DE17" s="6"/>
+      <c r="DF17" s="6"/>
+      <c r="DG17" s="6"/>
+      <c r="DH17" s="6"/>
+      <c r="DI17" s="6"/>
+      <c r="DJ17" s="6"/>
+      <c r="DK17" s="6"/>
+      <c r="DL17" s="6"/>
+      <c r="DM17" s="6"/>
+      <c r="DN17" s="6"/>
+      <c r="DO17" s="6"/>
+      <c r="DP17" s="6"/>
+      <c r="DQ17" s="6"/>
+      <c r="DR17" s="6"/>
+      <c r="DS17" s="6"/>
+      <c r="DT17" s="6"/>
+      <c r="DU17" s="6"/>
+      <c r="DV17" s="6"/>
+      <c r="DW17" s="6"/>
+      <c r="DX17" s="6"/>
+      <c r="DY17" s="6"/>
+      <c r="DZ17" s="6"/>
+      <c r="EA17" s="6"/>
+      <c r="EB17" s="6"/>
+      <c r="EC17" s="6"/>
+      <c r="ED17" s="6"/>
+      <c r="EE17" s="6"/>
+      <c r="EF17" s="6"/>
+      <c r="EG17" s="6"/>
+      <c r="EH17" s="6"/>
+      <c r="EI17" s="6"/>
+      <c r="EJ17" s="6"/>
+      <c r="EK17" s="6"/>
+      <c r="EL17" s="6"/>
+      <c r="EM17" s="6"/>
+      <c r="EN17" s="6"/>
+      <c r="EO17" s="6"/>
+      <c r="EP17" s="6"/>
+      <c r="EQ17" s="6"/>
+      <c r="ER17" s="6"/>
+      <c r="ES17" s="6"/>
+      <c r="ET17" s="6"/>
+      <c r="EU17" s="6"/>
+      <c r="EV17" s="6"/>
+      <c r="EW17" s="6"/>
+      <c r="EX17" s="6"/>
+      <c r="EY17" s="6"/>
+      <c r="EZ17" s="6"/>
+      <c r="FA17" s="6"/>
+      <c r="FB17" s="6"/>
+      <c r="FC17" s="6"/>
+      <c r="FD17" s="6"/>
+      <c r="FE17" s="6"/>
+      <c r="FF17" s="6"/>
+      <c r="FG17" s="6"/>
+      <c r="FH17" s="6"/>
+      <c r="FI17" s="6"/>
+      <c r="FJ17" s="6"/>
+      <c r="FK17" s="6"/>
+      <c r="FL17" s="6"/>
+      <c r="FM17" s="6"/>
+      <c r="FN17" s="6"/>
+      <c r="FO17" s="6"/>
+      <c r="FP17" s="6"/>
+      <c r="FQ17" s="6"/>
+      <c r="FR17" s="6"/>
+      <c r="FS17" s="6"/>
+      <c r="FT17" s="6"/>
+      <c r="FU17" s="6"/>
+      <c r="FV17" s="6"/>
+      <c r="FW17" s="6"/>
+      <c r="FX17" s="6"/>
+      <c r="FY17" s="6"/>
+      <c r="FZ17" s="6"/>
+      <c r="GA17" s="6"/>
+      <c r="GB17" s="6"/>
+      <c r="GC17" s="6"/>
+      <c r="GD17" s="6"/>
+      <c r="GE17" s="6"/>
+      <c r="GF17" s="6"/>
+      <c r="GG17" s="6"/>
+      <c r="GH17" s="6"/>
+      <c r="GI17" s="6"/>
+      <c r="GJ17" s="6"/>
+      <c r="GK17" s="6"/>
+      <c r="GL17" s="6"/>
+      <c r="GM17" s="6"/>
+      <c r="GN17" s="6"/>
+      <c r="GO17" s="6"/>
+      <c r="GP17" s="6"/>
+      <c r="GQ17" s="6"/>
+      <c r="GR17" s="6"/>
+      <c r="GS17" s="6"/>
+      <c r="GT17" s="6"/>
+      <c r="GU17" s="6"/>
+      <c r="GV17" s="6"/>
+      <c r="GW17" s="6"/>
+      <c r="GX17" s="6"/>
+      <c r="GY17" s="6"/>
+      <c r="GZ17" s="6"/>
+      <c r="HA17" s="6"/>
+      <c r="HB17" s="6"/>
+      <c r="HC17" s="6"/>
+      <c r="HD17" s="6"/>
+      <c r="HE17" s="6"/>
+      <c r="HF17" s="6"/>
+      <c r="HG17" s="6"/>
+      <c r="HH17" s="6"/>
+      <c r="HI17" s="6"/>
+      <c r="HJ17" s="6"/>
+      <c r="HK17" s="6"/>
+      <c r="HL17" s="6"/>
+      <c r="HM17" s="6"/>
+      <c r="HN17" s="6"/>
+      <c r="HO17" s="6"/>
+      <c r="HP17" s="6"/>
+      <c r="HQ17" s="6"/>
+      <c r="HR17" s="6"/>
+      <c r="HS17" s="6"/>
+      <c r="HT17" s="6"/>
+      <c r="HU17" s="6"/>
+      <c r="HV17" s="6"/>
+      <c r="HW17" s="6"/>
+      <c r="HX17" s="6"/>
+      <c r="HY17" s="6"/>
+      <c r="HZ17" s="6"/>
+      <c r="IA17" s="6"/>
+      <c r="IB17" s="6"/>
+      <c r="IC17" s="6"/>
+      <c r="ID17" s="6"/>
+      <c r="IE17" s="6"/>
+      <c r="IF17" s="6"/>
+      <c r="IG17" s="6"/>
+      <c r="IH17" s="6"/>
+      <c r="II17" s="6"/>
+      <c r="IJ17" s="6"/>
+      <c r="IK17" s="6"/>
+      <c r="IL17" s="6"/>
+      <c r="IM17" s="6"/>
+      <c r="IN17" s="6"/>
+      <c r="IO17" s="6"/>
+      <c r="IP17" s="6"/>
+      <c r="IQ17" s="6"/>
+      <c r="IR17" s="6"/>
+      <c r="IS17" s="6"/>
+      <c r="IT17" s="6"/>
+      <c r="IU17" s="6"/>
+      <c r="IV17" s="6"/>
+    </row>
+    <row r="18" spans="1:256" ht="17" customHeight="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="6"/>
+      <c r="AO18" s="6"/>
+      <c r="AP18" s="6"/>
+      <c r="AQ18" s="6"/>
+      <c r="AR18" s="6"/>
+      <c r="AS18" s="6"/>
+      <c r="AT18" s="6"/>
+      <c r="AU18" s="6"/>
+      <c r="AV18" s="6"/>
+      <c r="AW18" s="6"/>
+      <c r="AX18" s="6"/>
+      <c r="AY18" s="6"/>
+      <c r="AZ18" s="6"/>
+      <c r="BA18" s="6"/>
+      <c r="BB18" s="6"/>
+      <c r="BC18" s="6"/>
+      <c r="BD18" s="6"/>
+      <c r="BE18" s="6"/>
+      <c r="BF18" s="6"/>
+      <c r="BG18" s="6"/>
+      <c r="BH18" s="6"/>
+      <c r="BI18" s="6"/>
+      <c r="BJ18" s="6"/>
+      <c r="BK18" s="6"/>
+      <c r="BL18" s="6"/>
+      <c r="BM18" s="6"/>
+      <c r="BN18" s="6"/>
+      <c r="BO18" s="6"/>
+      <c r="BP18" s="6"/>
+      <c r="BQ18" s="6"/>
+      <c r="BR18" s="6"/>
+      <c r="BS18" s="6"/>
+      <c r="BT18" s="6"/>
+      <c r="BU18" s="6"/>
+      <c r="BV18" s="6"/>
+      <c r="BW18" s="6"/>
+      <c r="BX18" s="6"/>
+      <c r="BY18" s="6"/>
+      <c r="BZ18" s="6"/>
+      <c r="CA18" s="6"/>
+      <c r="CB18" s="6"/>
+      <c r="CC18" s="6"/>
+      <c r="CD18" s="6"/>
+      <c r="CE18" s="6"/>
+      <c r="CF18" s="6"/>
+      <c r="CG18" s="6"/>
+      <c r="CH18" s="6"/>
+      <c r="CI18" s="6"/>
+      <c r="CJ18" s="6"/>
+      <c r="CK18" s="6"/>
+      <c r="CL18" s="6"/>
+      <c r="CM18" s="6"/>
+      <c r="CN18" s="6"/>
+      <c r="CO18" s="6"/>
+      <c r="CP18" s="6"/>
+      <c r="CQ18" s="6"/>
+      <c r="CR18" s="6"/>
+      <c r="CS18" s="6"/>
+      <c r="CT18" s="6"/>
+      <c r="CU18" s="6"/>
+      <c r="CV18" s="6"/>
+      <c r="CW18" s="6"/>
+      <c r="CX18" s="6"/>
+      <c r="CY18" s="6"/>
+      <c r="CZ18" s="6"/>
+      <c r="DA18" s="6"/>
+      <c r="DB18" s="6"/>
+      <c r="DC18" s="6"/>
+      <c r="DD18" s="6"/>
+      <c r="DE18" s="6"/>
+      <c r="DF18" s="6"/>
+      <c r="DG18" s="6"/>
+      <c r="DH18" s="6"/>
+      <c r="DI18" s="6"/>
+      <c r="DJ18" s="6"/>
+      <c r="DK18" s="6"/>
+      <c r="DL18" s="6"/>
+      <c r="DM18" s="6"/>
+      <c r="DN18" s="6"/>
+      <c r="DO18" s="6"/>
+      <c r="DP18" s="6"/>
+      <c r="DQ18" s="6"/>
+      <c r="DR18" s="6"/>
+      <c r="DS18" s="6"/>
+      <c r="DT18" s="6"/>
+      <c r="DU18" s="6"/>
+      <c r="DV18" s="6"/>
+      <c r="DW18" s="6"/>
+      <c r="DX18" s="6"/>
+      <c r="DY18" s="6"/>
+      <c r="DZ18" s="6"/>
+      <c r="EA18" s="6"/>
+      <c r="EB18" s="6"/>
+      <c r="EC18" s="6"/>
+      <c r="ED18" s="6"/>
+      <c r="EE18" s="6"/>
+      <c r="EF18" s="6"/>
+      <c r="EG18" s="6"/>
+      <c r="EH18" s="6"/>
+      <c r="EI18" s="6"/>
+      <c r="EJ18" s="6"/>
+      <c r="EK18" s="6"/>
+      <c r="EL18" s="6"/>
+      <c r="EM18" s="6"/>
+      <c r="EN18" s="6"/>
+      <c r="EO18" s="6"/>
+      <c r="EP18" s="6"/>
+      <c r="EQ18" s="6"/>
+      <c r="ER18" s="6"/>
+      <c r="ES18" s="6"/>
+      <c r="ET18" s="6"/>
+      <c r="EU18" s="6"/>
+      <c r="EV18" s="6"/>
+      <c r="EW18" s="6"/>
+      <c r="EX18" s="6"/>
+      <c r="EY18" s="6"/>
+      <c r="EZ18" s="6"/>
+      <c r="FA18" s="6"/>
+      <c r="FB18" s="6"/>
+      <c r="FC18" s="6"/>
+      <c r="FD18" s="6"/>
+      <c r="FE18" s="6"/>
+      <c r="FF18" s="6"/>
+      <c r="FG18" s="6"/>
+      <c r="FH18" s="6"/>
+      <c r="FI18" s="6"/>
+      <c r="FJ18" s="6"/>
+      <c r="FK18" s="6"/>
+      <c r="FL18" s="6"/>
+      <c r="FM18" s="6"/>
+      <c r="FN18" s="6"/>
+      <c r="FO18" s="6"/>
+      <c r="FP18" s="6"/>
+      <c r="FQ18" s="6"/>
+      <c r="FR18" s="6"/>
+      <c r="FS18" s="6"/>
+      <c r="FT18" s="6"/>
+      <c r="FU18" s="6"/>
+      <c r="FV18" s="6"/>
+      <c r="FW18" s="6"/>
+      <c r="FX18" s="6"/>
+      <c r="FY18" s="6"/>
+      <c r="FZ18" s="6"/>
+      <c r="GA18" s="6"/>
+      <c r="GB18" s="6"/>
+      <c r="GC18" s="6"/>
+      <c r="GD18" s="6"/>
+      <c r="GE18" s="6"/>
+      <c r="GF18" s="6"/>
+      <c r="GG18" s="6"/>
+      <c r="GH18" s="6"/>
+      <c r="GI18" s="6"/>
+      <c r="GJ18" s="6"/>
+      <c r="GK18" s="6"/>
+      <c r="GL18" s="6"/>
+      <c r="GM18" s="6"/>
+      <c r="GN18" s="6"/>
+      <c r="GO18" s="6"/>
+      <c r="GP18" s="6"/>
+      <c r="GQ18" s="6"/>
+      <c r="GR18" s="6"/>
+      <c r="GS18" s="6"/>
+      <c r="GT18" s="6"/>
+      <c r="GU18" s="6"/>
+      <c r="GV18" s="6"/>
+      <c r="GW18" s="6"/>
+      <c r="GX18" s="6"/>
+      <c r="GY18" s="6"/>
+      <c r="GZ18" s="6"/>
+      <c r="HA18" s="6"/>
+      <c r="HB18" s="6"/>
+      <c r="HC18" s="6"/>
+      <c r="HD18" s="6"/>
+      <c r="HE18" s="6"/>
+      <c r="HF18" s="6"/>
+      <c r="HG18" s="6"/>
+      <c r="HH18" s="6"/>
+      <c r="HI18" s="6"/>
+      <c r="HJ18" s="6"/>
+      <c r="HK18" s="6"/>
+      <c r="HL18" s="6"/>
+      <c r="HM18" s="6"/>
+      <c r="HN18" s="6"/>
+      <c r="HO18" s="6"/>
+      <c r="HP18" s="6"/>
+      <c r="HQ18" s="6"/>
+      <c r="HR18" s="6"/>
+      <c r="HS18" s="6"/>
+      <c r="HT18" s="6"/>
+      <c r="HU18" s="6"/>
+      <c r="HV18" s="6"/>
+      <c r="HW18" s="6"/>
+      <c r="HX18" s="6"/>
+      <c r="HY18" s="6"/>
+      <c r="HZ18" s="6"/>
+      <c r="IA18" s="6"/>
+      <c r="IB18" s="6"/>
+      <c r="IC18" s="6"/>
+      <c r="ID18" s="6"/>
+      <c r="IE18" s="6"/>
+      <c r="IF18" s="6"/>
+      <c r="IG18" s="6"/>
+      <c r="IH18" s="6"/>
+      <c r="II18" s="6"/>
+      <c r="IJ18" s="6"/>
+      <c r="IK18" s="6"/>
+      <c r="IL18" s="6"/>
+      <c r="IM18" s="6"/>
+      <c r="IN18" s="6"/>
+      <c r="IO18" s="6"/>
+      <c r="IP18" s="6"/>
+      <c r="IQ18" s="6"/>
+      <c r="IR18" s="6"/>
+      <c r="IS18" s="6"/>
+      <c r="IT18" s="6"/>
+      <c r="IU18" s="6"/>
+      <c r="IV18" s="6"/>
+    </row>
+    <row r="19" spans="1:256" ht="14" customHeight="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:256" ht="15.75" customHeight="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:256" ht="15.75" customHeight="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:256" ht="15.75" customHeight="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:256" ht="15.75" customHeight="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:256" ht="15.75" customHeight="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:256" ht="15.75" customHeight="1">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:256" ht="15.75" customHeight="1">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:256" ht="15.75" customHeight="1">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:256" ht="15.75" customHeight="1">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:256" ht="15.75" customHeight="1">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:256" ht="15.75" customHeight="1">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:256" ht="15.75" customHeight="1">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:256" ht="15.75" customHeight="1">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2071,10 +3961,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:IV29"/>
+  <dimension ref="A1:IV68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
@@ -2153,19 +4043,19 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="G7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>2</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17" customHeight="1">
@@ -2174,16 +4064,16 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17" customHeight="1">
@@ -2192,16 +4082,16 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17" customHeight="1">
@@ -2210,16 +4100,16 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17" customHeight="1">
@@ -2228,16 +4118,16 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17" customHeight="1">
@@ -2246,16 +4136,16 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="H12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17" customHeight="1">
@@ -2264,16 +4154,16 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="H13" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17" customHeight="1">
@@ -2282,16 +4172,16 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="H14" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17" customHeight="1">
@@ -2300,16 +4190,16 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="H15" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="21" customHeight="1">
@@ -2318,16 +4208,16 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="H16" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21" customHeight="1">
@@ -2336,16 +4226,16 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="H17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="21" customHeight="1">
@@ -2354,16 +4244,16 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="H18" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="22.5" customHeight="1">
@@ -2372,16 +4262,16 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="22.5" customHeight="1">
@@ -2390,16 +4280,16 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="H20" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21" customHeight="1">
@@ -2408,16 +4298,16 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="H21" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="22.5" customHeight="1">
@@ -2426,16 +4316,16 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="H22" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="22.5" customHeight="1">
@@ -2444,16 +4334,16 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>51</v>
-      </c>
       <c r="H23" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21" customHeight="1">
@@ -2462,16 +4352,16 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="H24" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21" customHeight="1">
@@ -2480,16 +4370,16 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="5" t="s">
+      <c r="H25" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21" customHeight="1">
@@ -2498,16 +4388,16 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="5" t="s">
+      <c r="H26" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21" customHeight="1">
@@ -2516,16 +4406,16 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="5" t="s">
+      <c r="H27" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21" customHeight="1">
@@ -2534,35 +4424,609 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="H28" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="21" customHeight="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="17" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="8" t="s">
-        <v>68</v>
+      <c r="E29" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>70</v>
-      </c>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="H52" s="21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2572,4 +5036,1866 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B6BBC4-CC5E-234E-BF4D-065BFA91CACE}">
+  <dimension ref="A1:JD35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="3" width="9" style="11" customWidth="1"/>
+    <col min="4" max="4" width="18" style="11" customWidth="1"/>
+    <col min="5" max="5" width="27" style="11" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" style="11" customWidth="1"/>
+    <col min="7" max="13" width="29.6640625" style="11" customWidth="1"/>
+    <col min="14" max="16" width="23.1640625" style="11" customWidth="1"/>
+    <col min="17" max="264" width="9" style="11" customWidth="1"/>
+    <col min="265" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="17" customHeight="1">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+    </row>
+    <row r="2" spans="1:16" ht="17" customHeight="1">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+    </row>
+    <row r="3" spans="1:16" ht="17" customHeight="1">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+    </row>
+    <row r="4" spans="1:16" ht="17" customHeight="1">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+    </row>
+    <row r="5" spans="1:16" ht="17" customHeight="1">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+    </row>
+    <row r="6" spans="1:16" ht="17" customHeight="1">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+    </row>
+    <row r="7" spans="1:16" ht="17" customHeight="1">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+    </row>
+    <row r="8" spans="1:16" ht="17" customHeight="1">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+    </row>
+    <row r="9" spans="1:16" ht="17" customHeight="1">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+    </row>
+    <row r="10" spans="1:16" ht="17" customHeight="1">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+    </row>
+    <row r="11" spans="1:16" ht="17" customHeight="1">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+    </row>
+    <row r="12" spans="1:16" ht="17" customHeight="1">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+    </row>
+    <row r="13" spans="1:16" ht="17" customHeight="1">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+    </row>
+    <row r="14" spans="1:16" ht="17" customHeight="1">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+    </row>
+    <row r="15" spans="1:16" ht="17" customHeight="1">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+    </row>
+    <row r="16" spans="1:16" ht="17" customHeight="1">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+    </row>
+    <row r="17" spans="1:16" ht="17" customHeight="1">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+    </row>
+    <row r="18" spans="1:16" ht="17" customHeight="1">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+    </row>
+    <row r="19" spans="1:16" ht="17" customHeight="1">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+    </row>
+    <row r="20" spans="1:16" ht="17" customHeight="1">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+    </row>
+    <row r="21" spans="1:16" ht="21" customHeight="1">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+    </row>
+    <row r="22" spans="1:16" ht="21" customHeight="1">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+    </row>
+    <row r="23" spans="1:16" ht="21" customHeight="1">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+    </row>
+    <row r="24" spans="1:16" ht="22.5" customHeight="1">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+    </row>
+    <row r="25" spans="1:16" ht="22.5" customHeight="1">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+    </row>
+    <row r="26" spans="1:16" ht="22.5" customHeight="1">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+    </row>
+    <row r="27" spans="1:16" ht="21" customHeight="1">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="N27" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+    </row>
+    <row r="28" spans="1:16" ht="22.5" customHeight="1">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+    </row>
+    <row r="29" spans="1:16" ht="22.5" customHeight="1">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="N29" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+    </row>
+    <row r="30" spans="1:16" ht="21" customHeight="1">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="N30" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+    </row>
+    <row r="31" spans="1:16" ht="21" customHeight="1">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+    </row>
+    <row r="32" spans="1:16" ht="21" customHeight="1">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+    </row>
+    <row r="33" spans="1:16" ht="21" customHeight="1">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+    </row>
+    <row r="34" spans="1:16" ht="21" customHeight="1">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+    </row>
+    <row r="35" spans="1:16" ht="21" customHeight="1">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B448682-933B-0149-B2A9-5D364A20B33E}">
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="3" width="10.83203125" style="10"/>
+    <col min="4" max="4" width="18.83203125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="10" customWidth="1"/>
+    <col min="6" max="7" width="17.5" style="10" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" ht="17">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="1:8" ht="17">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" ht="17">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8" ht="17">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" ht="17">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="1:8" ht="17">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="1:8" ht="17">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="1:8" ht="17">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:8" ht="17">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E433A9-7721-D54E-899D-CE9BEBF6FAE0}">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="4" width="10.83203125" style="10"/>
+    <col min="5" max="5" width="15.33203125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="10" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="10" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="1:9" ht="17">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="1:9" ht="17">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" spans="1:9" ht="17">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="13"/>
+    </row>
+    <row r="24" spans="1:9" ht="17">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="13"/>
+    </row>
+    <row r="25" spans="1:9" ht="17">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="13"/>
+    </row>
+    <row r="26" spans="1:9" ht="17">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="13"/>
+    </row>
+    <row r="27" spans="1:9" ht="17">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="13"/>
+    </row>
+    <row r="28" spans="1:9" ht="17">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" spans="1:9" ht="17">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="13"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/src/main/resources/script/db/data_init/2018-09-26-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2018-09-26-data-init.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/issue-service/src/main/resources/script/db/data_init/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{92EF0B5A-6C64-5243-8113-DCCD46B1278E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9CA22A9D-83E9-484B-8E94-B091F2458CAC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -90,9 +90,6 @@
     <t>状态类别颜色</t>
   </si>
   <si>
-    <t>state_machine_lookup_value</t>
-  </si>
-  <si>
     <t>#value_code</t>
   </si>
   <si>
@@ -916,6 +913,10 @@
     <rPh sb="0" eb="1">
       <t>ri q</t>
     </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lookup_value</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2310,7 +2311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IV34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
@@ -2382,7 +2383,7 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>0</v>
@@ -2739,13 +2740,13 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="G14" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:256" ht="17" customHeight="1">
@@ -2754,13 +2755,13 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="G15" s="9" t="s">
         <v>163</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>164</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -3018,13 +3019,13 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>166</v>
-      </c>
       <c r="G16" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -3282,13 +3283,13 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>168</v>
-      </c>
       <c r="G17" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -3546,13 +3547,13 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -3963,8 +3964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IV68"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
@@ -4042,14 +4043,14 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>1</v>
@@ -4064,16 +4065,16 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17" customHeight="1">
@@ -4082,16 +4083,16 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17" customHeight="1">
@@ -4100,16 +4101,16 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17" customHeight="1">
@@ -4118,16 +4119,16 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17" customHeight="1">
@@ -4136,16 +4137,16 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17" customHeight="1">
@@ -4154,16 +4155,16 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17" customHeight="1">
@@ -4172,16 +4173,16 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17" customHeight="1">
@@ -4190,16 +4191,16 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="21" customHeight="1">
@@ -4208,16 +4209,16 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21" customHeight="1">
@@ -4226,16 +4227,16 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="21" customHeight="1">
@@ -4244,16 +4245,16 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="22.5" customHeight="1">
@@ -4262,16 +4263,16 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="22.5" customHeight="1">
@@ -4280,16 +4281,16 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21" customHeight="1">
@@ -4298,16 +4299,16 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="22.5" customHeight="1">
@@ -4316,16 +4317,16 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="22.5" customHeight="1">
@@ -4334,16 +4335,16 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21" customHeight="1">
@@ -4352,16 +4353,16 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21" customHeight="1">
@@ -4370,16 +4371,16 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21" customHeight="1">
@@ -4388,16 +4389,16 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21" customHeight="1">
@@ -4406,16 +4407,16 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G27" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21" customHeight="1">
@@ -4424,16 +4425,16 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="H28" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="17" customHeight="1">
@@ -4442,16 +4443,16 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
@@ -4460,16 +4461,16 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G30" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>172</v>
-      </c>
       <c r="H30" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1">
@@ -4478,16 +4479,16 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1">
@@ -4496,16 +4497,16 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1">
@@ -4514,16 +4515,16 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G33" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="F33" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>176</v>
-      </c>
       <c r="H33" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1">
@@ -4532,16 +4533,16 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G34" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>178</v>
-      </c>
       <c r="H34" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1">
@@ -4550,16 +4551,16 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G35" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H35" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1">
@@ -4568,16 +4569,16 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1">
@@ -4586,16 +4587,16 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1">
@@ -4604,16 +4605,16 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1">
@@ -4622,16 +4623,16 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1">
@@ -4640,16 +4641,16 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="G40" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="F40" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>186</v>
-      </c>
       <c r="H40" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1">
@@ -4658,16 +4659,16 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="G41" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="F41" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>188</v>
-      </c>
       <c r="H41" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1">
@@ -4676,16 +4677,16 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G42" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="F42" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>190</v>
-      </c>
       <c r="H42" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1">
@@ -4694,16 +4695,16 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G43" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="F43" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>192</v>
-      </c>
       <c r="H43" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1">
@@ -4712,16 +4713,16 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H44" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1">
@@ -4730,16 +4731,16 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G45" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="F45" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G45" s="19" t="s">
-        <v>195</v>
-      </c>
       <c r="H45" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1">
@@ -4748,16 +4749,16 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1">
@@ -4766,16 +4767,16 @@
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1">
@@ -4784,16 +4785,16 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1">
@@ -4802,16 +4803,16 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1">
@@ -4820,16 +4821,16 @@
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1">
@@ -4838,16 +4839,16 @@
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G51" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="H51" s="9" t="s">
         <v>201</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1">
@@ -4856,16 +4857,16 @@
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G52" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="F52" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G52" s="19" t="s">
+      <c r="H52" s="21" t="s">
         <v>204</v>
-      </c>
-      <c r="H52" s="21" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1">
@@ -5171,37 +5172,37 @@
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
@@ -5212,34 +5213,34 @@
       <c r="C8" s="15"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N8" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
@@ -5250,34 +5251,34 @@
       <c r="C9" s="15"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
@@ -5288,34 +5289,34 @@
       <c r="C10" s="15"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J10" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="K10" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>73</v>
-      </c>
       <c r="M10" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N10" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
@@ -5326,34 +5327,34 @@
       <c r="C11" s="15"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J11" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="K11" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>73</v>
-      </c>
       <c r="M11" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
@@ -5364,34 +5365,34 @@
       <c r="C12" s="15"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J12" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="K12" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>73</v>
-      </c>
       <c r="M12" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
@@ -5402,34 +5403,34 @@
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N13" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
@@ -5440,34 +5441,34 @@
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N14" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
@@ -5478,34 +5479,34 @@
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J15" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="K15" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>73</v>
-      </c>
       <c r="M15" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
@@ -5516,34 +5517,34 @@
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J16" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L16" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="K16" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>73</v>
-      </c>
       <c r="M16" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N16" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
@@ -5554,34 +5555,34 @@
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J17" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="L17" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="K17" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>73</v>
-      </c>
       <c r="M17" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N17" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
@@ -5592,34 +5593,34 @@
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J18" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L18" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="K18" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="L18" s="13" t="s">
-        <v>73</v>
-      </c>
       <c r="M18" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N18" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
@@ -5630,34 +5631,34 @@
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J19" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L19" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="K19" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>73</v>
-      </c>
       <c r="M19" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N19" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
@@ -5668,34 +5669,34 @@
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J20" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L20" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="K20" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>73</v>
-      </c>
       <c r="M20" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N20" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
@@ -5706,34 +5707,34 @@
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L21" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N21" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
@@ -5744,34 +5745,34 @@
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J22" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L22" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="K22" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="L22" s="13" t="s">
-        <v>73</v>
-      </c>
       <c r="M22" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N22" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
@@ -5782,34 +5783,34 @@
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J23" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L23" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="K23" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>73</v>
-      </c>
       <c r="M23" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N23" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
@@ -5820,34 +5821,34 @@
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L24" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N24" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O24" s="16"/>
       <c r="P24" s="16"/>
@@ -5858,34 +5859,34 @@
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M25" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N25" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O25" s="16"/>
       <c r="P25" s="16"/>
@@ -5896,34 +5897,34 @@
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J26" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L26" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="K26" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="L26" s="13" t="s">
-        <v>73</v>
-      </c>
       <c r="M26" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N26" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O26" s="16"/>
       <c r="P26" s="16"/>
@@ -5934,34 +5935,34 @@
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J27" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="L27" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="K27" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>73</v>
-      </c>
       <c r="M27" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N27" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O27" s="12"/>
       <c r="P27" s="12"/>
@@ -5972,34 +5973,34 @@
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J28" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="L28" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="K28" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="L28" s="13" t="s">
-        <v>73</v>
-      </c>
       <c r="M28" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N28" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O28" s="16"/>
       <c r="P28" s="16"/>
@@ -6010,34 +6011,34 @@
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O29" s="16"/>
       <c r="P29" s="16"/>
@@ -6048,34 +6049,34 @@
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J30" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="L30" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="K30" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>73</v>
-      </c>
       <c r="M30" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N30" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O30" s="12"/>
       <c r="P30" s="12"/>
@@ -6263,19 +6264,19 @@
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>153</v>
-      </c>
       <c r="F7" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6284,16 +6285,16 @@
       <c r="C8" s="15"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6602,22 +6603,22 @@
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>156</v>
-      </c>
       <c r="F7" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -6626,19 +6627,19 @@
       <c r="C8" s="15"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>158</v>
-      </c>
       <c r="H8" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -6647,19 +6648,19 @@
       <c r="C9" s="15"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>160</v>
-      </c>
       <c r="H9" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:9">

--- a/src/main/resources/script/db/data_init/2018-09-26-data-init.xlsx
+++ b/src/main/resources/script/db/data_init/2018-09-26-data-init.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/issue-service/src/main/resources/script/db/data_init/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9CA22A9D-83E9-484B-8E94-B091F2458CAC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A32D6ECA-7E4E-6F4E-9A4E-FC241D81D786}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -769,17 +769,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>全局</t>
-    <rPh sb="0" eb="1">
-      <t>quan ju</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>全局</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>特性</t>
     <rPh sb="0" eb="2">
       <t>te x</t>
@@ -917,6 +906,20 @@
   </si>
   <si>
     <t>lookup_value</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部类型</t>
+    <rPh sb="0" eb="1">
+      <t>quan bu</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部类型</t>
+    <rPh sb="0" eb="1">
+      <t>q bu</t>
+    </rPh>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3964,8 +3967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IV68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
@@ -4044,7 +4047,7 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>21</v>
@@ -4557,10 +4560,10 @@
         <v>166</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1">
@@ -4575,10 +4578,10 @@
         <v>166</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1">
@@ -4596,7 +4599,7 @@
         <v>111</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1">
@@ -4611,10 +4614,10 @@
         <v>166</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1">
@@ -4629,10 +4632,10 @@
         <v>166</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1">
@@ -4641,16 +4644,16 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>166</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1">
@@ -4659,16 +4662,16 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>166</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1">
@@ -4677,16 +4680,16 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>147</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1">
@@ -4695,16 +4698,16 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F43" s="9" t="s">
         <v>147</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1">
@@ -4719,10 +4722,10 @@
         <v>147</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H44" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1">
@@ -4731,16 +4734,16 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F45" s="9" t="s">
         <v>147</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H45" s="19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1">
@@ -4755,10 +4758,10 @@
         <v>147</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1">
@@ -4773,10 +4776,10 @@
         <v>147</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1">
@@ -4791,10 +4794,10 @@
         <v>147</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1">
@@ -4809,10 +4812,10 @@
         <v>147</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1">
@@ -4827,10 +4830,10 @@
         <v>147</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1">
@@ -4845,10 +4848,10 @@
         <v>147</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1">
@@ -4857,16 +4860,16 @@
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F52" s="9" t="s">
         <v>147</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1">
